--- a/squire_results_example.xlsx
+++ b/squire_results_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studie\Farm_Squire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E0B74D-1E5E-447B-B1DE-C5C35A538B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00A7206-D0C4-4038-B5E3-7C500A024D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="statistics" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="80">
   <si>
     <t>revenue_balance_animal</t>
   </si>
@@ -174,6 +174,36 @@
   </si>
   <si>
     <t>year_30</t>
+  </si>
+  <si>
+    <t>year_31</t>
+  </si>
+  <si>
+    <t>year_32</t>
+  </si>
+  <si>
+    <t>year_33</t>
+  </si>
+  <si>
+    <t>year_34</t>
+  </si>
+  <si>
+    <t>year_35</t>
+  </si>
+  <si>
+    <t>year_36</t>
+  </si>
+  <si>
+    <t>year_37</t>
+  </si>
+  <si>
+    <t>year_38</t>
+  </si>
+  <si>
+    <t>year_39</t>
+  </si>
+  <si>
+    <t>year_40</t>
   </si>
   <si>
     <t>male_0_year</t>
@@ -239,7 +269,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="&quot;€&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
     <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
@@ -299,13 +329,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -609,52 +645,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="20" customWidth="1"/>
+    <col min="2" max="13" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -704,10 +740,10 @@
         <v>21</v>
       </c>
       <c r="B3" s="2">
-        <v>0</v>
+        <v>-5711.2202434239416</v>
       </c>
       <c r="C3" s="2">
-        <v>338792.4034786069</v>
+        <v>109560.83746677981</v>
       </c>
       <c r="D3" s="3">
         <v>112103748.40921509</v>
@@ -719,7 +755,7 @@
         <v>1158500.010259711</v>
       </c>
       <c r="G3" s="3">
-        <v>10349661053.47875</v>
+        <v>10339549009.87875</v>
       </c>
       <c r="H3" s="3">
         <v>898935.76940393681</v>
@@ -745,10 +781,10 @@
         <v>22</v>
       </c>
       <c r="B4" s="2">
-        <v>7025.2444138230521</v>
+        <v>481.47337438055092</v>
       </c>
       <c r="C4" s="2">
-        <v>338792.4034786069</v>
+        <v>109482.06232539131</v>
       </c>
       <c r="D4" s="3">
         <v>114996319.7053564</v>
@@ -760,7 +796,7 @@
         <v>1326340.5669493889</v>
       </c>
       <c r="G4" s="3">
-        <v>10330417593.55999</v>
+        <v>10320302763.55999</v>
       </c>
       <c r="H4" s="3">
         <v>901661.55284298607</v>
@@ -786,10 +822,10 @@
         <v>23</v>
       </c>
       <c r="B5" s="2">
-        <v>7080.5976821746845</v>
+        <v>-725.70311360117739</v>
       </c>
       <c r="C5" s="2">
-        <v>338792.4034786069</v>
+        <v>109181.5798177402</v>
       </c>
       <c r="D5" s="3">
         <v>115003226.9929173</v>
@@ -801,7 +837,7 @@
         <v>1326741.3601782341</v>
       </c>
       <c r="G5" s="3">
-        <v>10283787087.140921</v>
+        <v>10273665291.140921</v>
       </c>
       <c r="H5" s="3">
         <v>912058.87144682964</v>
@@ -827,10 +863,10 @@
         <v>24</v>
       </c>
       <c r="B6" s="2">
-        <v>5493.6826523325781</v>
+        <v>-4694.4441624346273</v>
       </c>
       <c r="C6" s="2">
-        <v>338792.4034786069</v>
+        <v>108583.70268392601</v>
       </c>
       <c r="D6" s="3">
         <v>114334809.0244963</v>
@@ -842,7 +878,7 @@
         <v>1287956.6138624451</v>
       </c>
       <c r="G6" s="3">
-        <v>10209373745.743231</v>
+        <v>10199239410.94323</v>
       </c>
       <c r="H6" s="3">
         <v>932746.66154420516</v>
@@ -868,10 +904,10 @@
         <v>25</v>
       </c>
       <c r="B7" s="2">
-        <v>8284.6144052387226</v>
+        <v>-4304.2914996004001</v>
       </c>
       <c r="C7" s="2">
-        <v>338792.4034786069</v>
+        <v>107956.35323249429</v>
       </c>
       <c r="D7" s="3">
         <v>115563249.1545184</v>
@@ -883,7 +919,7 @@
         <v>1359236.4732587889</v>
       </c>
       <c r="G7" s="3">
-        <v>10141345367.23736</v>
+        <v>10131198493.63736</v>
       </c>
       <c r="H7" s="3">
         <v>954454.25501935254</v>
@@ -909,10 +945,10 @@
         <v>26</v>
       </c>
       <c r="B8" s="2">
-        <v>12191.382027729191</v>
+        <v>-2926.7754605138889</v>
       </c>
       <c r="C8" s="2">
-        <v>338792.4034786069</v>
+        <v>107360.2716321473</v>
       </c>
       <c r="D8" s="3">
         <v>117125891.8013785</v>
@@ -924,7 +960,7 @@
         <v>1449908.330545733</v>
       </c>
       <c r="G8" s="3">
-        <v>10066070261.839661</v>
+        <v>10055910849.439659</v>
       </c>
       <c r="H8" s="3">
         <v>975079.91593101376</v>
@@ -950,10 +986,10 @@
         <v>27</v>
       </c>
       <c r="B9" s="2">
-        <v>11850.867652580821</v>
+        <v>-6752.7895038222359</v>
       </c>
       <c r="C9" s="2">
-        <v>338792.4034786069</v>
+        <v>106635.9079049346</v>
       </c>
       <c r="D9" s="3">
         <v>116982610.4279394</v>
@@ -965,7 +1001,7 @@
         <v>1441594.473074578</v>
       </c>
       <c r="G9" s="3">
-        <v>9424274350.8450222</v>
+        <v>9414095433.6450214</v>
       </c>
       <c r="H9" s="3">
         <v>1000144.4047619</v>
@@ -991,10 +1027,10 @@
         <v>28</v>
       </c>
       <c r="B10" s="2">
-        <v>17292.64149240388</v>
+        <v>-5265.667912777084</v>
       </c>
       <c r="C10" s="2">
-        <v>338792.4034786069</v>
+        <v>106635.9079049346</v>
       </c>
       <c r="D10" s="3">
         <v>119274427.0800807</v>
@@ -1006,7 +1042,7 @@
         <v>1574576.4269642569</v>
       </c>
       <c r="G10" s="3">
-        <v>8195305678.8497181</v>
+        <v>8185107256.8497181</v>
       </c>
       <c r="H10" s="3">
         <v>1000144.4047619</v>
@@ -1032,10 +1068,10 @@
         <v>29</v>
       </c>
       <c r="B11" s="2">
-        <v>15313.303274903879</v>
+        <v>-12986.98201102356</v>
       </c>
       <c r="C11" s="2">
-        <v>338792.4034786069</v>
+        <v>106635.9079049346</v>
       </c>
       <c r="D11" s="3">
         <v>118523483.7750807</v>
@@ -1047,7 +1083,7 @@
         <v>1531003.173464257</v>
       </c>
       <c r="G11" s="3">
-        <v>8017626557.7657862</v>
+        <v>8007398878.5657864</v>
       </c>
       <c r="H11" s="3">
         <v>1000144.4047619</v>
@@ -1073,10 +1109,10 @@
         <v>30</v>
       </c>
       <c r="B12" s="2">
-        <v>22861.535661494239</v>
+        <v>-10705.12434560771</v>
       </c>
       <c r="C12" s="2">
-        <v>338792.4034786069</v>
+        <v>106635.9079049346</v>
       </c>
       <c r="D12" s="3">
         <v>121689514.4859449</v>
@@ -1088,7 +1124,7 @@
         <v>1714711.1282921799</v>
       </c>
       <c r="G12" s="3">
-        <v>7857667646.5483313</v>
+        <v>7847410710.1483316</v>
       </c>
       <c r="H12" s="3">
         <v>1000144.4047619</v>
@@ -1114,10 +1150,10 @@
         <v>31</v>
       </c>
       <c r="B13" s="2">
-        <v>31009.504856585831</v>
+        <v>-8730.0064576900586</v>
       </c>
       <c r="C13" s="2">
-        <v>338792.4034786069</v>
+        <v>106635.9079049346</v>
       </c>
       <c r="D13" s="3">
         <v>125051614.9477663</v>
@@ -1129,7 +1165,7 @@
         <v>1909795.9699040379</v>
       </c>
       <c r="G13" s="3">
-        <v>7622073311.7525225</v>
+        <v>7611784331.7525225</v>
       </c>
       <c r="H13" s="3">
         <v>1000144.4047619</v>
@@ -1155,10 +1191,10 @@
         <v>32</v>
       </c>
       <c r="B14" s="2">
-        <v>29890.224531159402</v>
+        <v>-18376.159959070919</v>
       </c>
       <c r="C14" s="2">
-        <v>338792.4034786069</v>
+        <v>106635.9079049346</v>
       </c>
       <c r="D14" s="3">
         <v>124649749.1065072</v>
@@ -1170,7 +1206,7 @@
         <v>1886477.828497648</v>
       </c>
       <c r="G14" s="3">
-        <v>7384594347.3989801</v>
+        <v>7374259391.7989798</v>
       </c>
       <c r="H14" s="3">
         <v>1000144.4047619</v>
@@ -1196,10 +1232,10 @@
         <v>33</v>
       </c>
       <c r="B15" s="2">
-        <v>40956.245808424443</v>
+        <v>-17200.0884759092</v>
       </c>
       <c r="C15" s="2">
-        <v>338792.4034786069</v>
+        <v>106635.9079049346</v>
       </c>
       <c r="D15" s="3">
         <v>129363560.4520736</v>
@@ -1211,7 +1247,7 @@
         <v>2159995.2769440948</v>
       </c>
       <c r="G15" s="3">
-        <v>7140742050.7236481</v>
+        <v>7130355546.7236481</v>
       </c>
       <c r="H15" s="3">
         <v>1000144.4047619</v>
@@ -1237,10 +1273,10 @@
         <v>34</v>
       </c>
       <c r="B16" s="2">
-        <v>45151.61899355377</v>
+        <v>-24980.42916475012</v>
       </c>
       <c r="C16" s="2">
-        <v>338792.4034786069</v>
+        <v>106635.9079049346</v>
       </c>
       <c r="D16" s="3">
         <v>131130240.50923289</v>
@@ -1252,7 +1288,7 @@
         <v>2262506.34198914</v>
       </c>
       <c r="G16" s="3">
-        <v>7129215312.2668152</v>
+        <v>7118764721.0668154</v>
       </c>
       <c r="H16" s="3">
         <v>1000144.4047619</v>
@@ -1278,10 +1314,10 @@
         <v>35</v>
       </c>
       <c r="B17" s="2">
-        <v>52654.831479318833</v>
+        <v>-32289.09047263554</v>
       </c>
       <c r="C17" s="2">
-        <v>338792.4034786069</v>
+        <v>106635.9079049346</v>
       </c>
       <c r="D17" s="3">
         <v>134492353.9057993</v>
@@ -1293,7 +1329,7 @@
         <v>2457591.934135587</v>
       </c>
       <c r="G17" s="3">
-        <v>6749318238.9075785</v>
+        <v>6738788235.3075771</v>
       </c>
       <c r="H17" s="3">
         <v>1000144.4047619</v>
@@ -1319,10 +1355,10 @@
         <v>36</v>
       </c>
       <c r="B18" s="2">
-        <v>75510.28671577535</v>
+        <v>-25895.424658536682</v>
       </c>
       <c r="C18" s="2">
-        <v>338792.4034786069</v>
+        <v>106635.9079049346</v>
       </c>
       <c r="D18" s="3">
         <v>144171653.77719131</v>
@@ -1334,7 +1370,7 @@
         <v>3019230.3217348699</v>
       </c>
       <c r="G18" s="3">
-        <v>5603744989.2342701</v>
+        <v>5593130000.4342699</v>
       </c>
       <c r="H18" s="3">
         <v>1000144.4047619</v>
@@ -1360,10 +1396,10 @@
         <v>37</v>
       </c>
       <c r="B19" s="2">
-        <v>91337.053082566665</v>
+        <v>-29625.925192135259</v>
       </c>
       <c r="C19" s="2">
-        <v>338792.4034786069</v>
+        <v>106635.9079049346</v>
       </c>
       <c r="D19" s="3">
         <v>150890719.02802089</v>
@@ -1375,7 +1411,7 @@
         <v>3409102.0091286851</v>
       </c>
       <c r="G19" s="3">
-        <v>4198859224.4805031</v>
+        <v>4188139745.6805029</v>
       </c>
       <c r="H19" s="3">
         <v>1000144.4047619</v>
@@ -1401,10 +1437,10 @@
         <v>38</v>
       </c>
       <c r="B20" s="2">
-        <v>185174.5334384086</v>
+        <v>54751.422660337179</v>
       </c>
       <c r="C20" s="2">
-        <v>338792.4034786069</v>
+        <v>106635.9079049346</v>
       </c>
       <c r="D20" s="3">
         <v>190331184.53922579</v>
@@ -1416,7 +1452,7 @@
         <v>5697622.847433175</v>
       </c>
       <c r="G20" s="3">
-        <v>3737601551.9979219</v>
+        <v>3726830524.7979231</v>
       </c>
       <c r="H20" s="3">
         <v>1000144.4047619</v>
@@ -1442,40 +1478,40 @@
         <v>39</v>
       </c>
       <c r="B21" s="2">
-        <v>225144.7539995625</v>
+        <v>98969.504441649333</v>
       </c>
       <c r="C21" s="2">
-        <v>302166.27551148692</v>
+        <v>106635.9079049346</v>
       </c>
       <c r="D21" s="3">
-        <v>205964150.5834918</v>
+        <v>212887287.49677849</v>
       </c>
       <c r="E21" s="3">
-        <v>16395427.564075099</v>
+        <v>17295008.008671992</v>
       </c>
       <c r="F21" s="3">
-        <v>6604720.8771621641</v>
+        <v>7006433.7597850002</v>
       </c>
       <c r="G21" s="3">
-        <v>3578111843.159986</v>
+        <v>3980786312.7122159</v>
       </c>
       <c r="H21" s="3">
         <v>1000144.4047619</v>
       </c>
       <c r="I21" s="3">
-        <v>10523858362.23525</v>
+        <v>11739874529.15358</v>
       </c>
       <c r="J21" s="3">
-        <v>2783131.3843963109</v>
+        <v>2365674.208218446</v>
       </c>
       <c r="K21" s="3">
-        <v>-49148122.327613443</v>
+        <v>-49005142.725641303</v>
       </c>
       <c r="L21" s="3">
-        <v>22776293.54078</v>
+        <v>19952216.2476</v>
       </c>
       <c r="M21" s="3">
-        <v>2975999.9994949428</v>
+        <v>2975999.9995477749</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1483,40 +1519,40 @@
         <v>40</v>
       </c>
       <c r="B22" s="2">
-        <v>208856.1436212518</v>
+        <v>65091.71156774016</v>
       </c>
       <c r="C22" s="2">
-        <v>302166.27551148692</v>
+        <v>106635.9079049346</v>
       </c>
       <c r="D22" s="3">
-        <v>197813016.8132129</v>
+        <v>200373502.36683431</v>
       </c>
       <c r="E22" s="3">
-        <v>15336283.330344411</v>
+        <v>15668988.39765143</v>
       </c>
       <c r="F22" s="3">
-        <v>6131753.8559237914</v>
+        <v>6280325.2398993494</v>
       </c>
       <c r="G22" s="3">
-        <v>2905854313.865448</v>
+        <v>4192646827.1440568</v>
       </c>
       <c r="H22" s="3">
         <v>1000144.4047619</v>
       </c>
       <c r="I22" s="3">
-        <v>8546630334.8983746</v>
+        <v>12362993689.247219</v>
       </c>
       <c r="J22" s="3">
-        <v>2936438.4544910039</v>
+        <v>2401827.1596907428</v>
       </c>
       <c r="K22" s="3">
-        <v>-50953969.855342127</v>
+        <v>-47983483.19377166</v>
       </c>
       <c r="L22" s="3">
-        <v>24078685.375739999</v>
+        <v>18498305.206149999</v>
       </c>
       <c r="M22" s="3">
-        <v>2945999.9994986448</v>
+        <v>2975999.9995646221</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1524,40 +1560,40 @@
         <v>41</v>
       </c>
       <c r="B23" s="2">
-        <v>208209.3666593277</v>
+        <v>53873.249334398191</v>
       </c>
       <c r="C23" s="2">
-        <v>338792.4034786069</v>
+        <v>106635.9079049346</v>
       </c>
       <c r="D23" s="3">
-        <v>200541064.70670229</v>
+        <v>195411284.59478781</v>
       </c>
       <c r="E23" s="3">
-        <v>15690761.158479961</v>
+        <v>15024206.397024389</v>
       </c>
       <c r="F23" s="3">
-        <v>6290047.9929534346</v>
+        <v>5992394.0852250466</v>
       </c>
       <c r="G23" s="3">
-        <v>3052190715.9975538</v>
+        <v>4195008479.120966</v>
       </c>
       <c r="H23" s="3">
         <v>1000144.4047619</v>
       </c>
       <c r="I23" s="3">
-        <v>8977031517.6398659</v>
+        <v>12369939724.473431</v>
       </c>
       <c r="J23" s="3">
-        <v>2748071.6317813899</v>
+        <v>2382188.7224428598</v>
       </c>
       <c r="K23" s="3">
-        <v>-50952778.13693887</v>
+        <v>-48063410.247515157</v>
       </c>
       <c r="L23" s="3">
-        <v>21716712.039980002</v>
+        <v>18267681.421549998</v>
       </c>
       <c r="M23" s="3">
-        <v>2975999.9995550201</v>
+        <v>2975999.9995671269</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1565,40 +1601,40 @@
         <v>42</v>
       </c>
       <c r="B24" s="2">
-        <v>193885.05091630531</v>
+        <v>56702.692058897577</v>
       </c>
       <c r="C24" s="2">
-        <v>338792.4034786069</v>
+        <v>106635.9079049346</v>
       </c>
       <c r="D24" s="3">
-        <v>194327935.9696475</v>
+        <v>196597526.46102849</v>
       </c>
       <c r="E24" s="3">
-        <v>14883437.949128071</v>
+        <v>15178344.61482913</v>
       </c>
       <c r="F24" s="3">
-        <v>5929533.1156181525</v>
+        <v>6061225.4033896318</v>
       </c>
       <c r="G24" s="3">
-        <v>3138258072.4805322</v>
+        <v>4207700403.486937</v>
       </c>
       <c r="H24" s="3">
         <v>1000144.4047619</v>
       </c>
       <c r="I24" s="3">
-        <v>9230170801.4133301</v>
+        <v>12407268913.78511</v>
       </c>
       <c r="J24" s="3">
-        <v>2768651.7134012259</v>
+        <v>2380119.7901919601</v>
       </c>
       <c r="K24" s="3">
-        <v>-50548411.099082813</v>
+        <v>-48041153.003775001</v>
       </c>
       <c r="L24" s="3">
-        <v>20886832.672729999</v>
+        <v>18273693.110950001</v>
       </c>
       <c r="M24" s="3">
-        <v>2975999.9995499728</v>
+        <v>2975999.9995699069</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1606,40 +1642,40 @@
         <v>43</v>
       </c>
       <c r="B25" s="2">
-        <v>191574.79268233379</v>
+        <v>55174.566874312623</v>
       </c>
       <c r="C25" s="2">
-        <v>338792.4034786069</v>
+        <v>106635.9079049346</v>
       </c>
       <c r="D25" s="3">
-        <v>193282690.25849801</v>
+        <v>195936035.6803914</v>
       </c>
       <c r="E25" s="3">
-        <v>14747620.52801884</v>
+        <v>15092391.64611054</v>
       </c>
       <c r="F25" s="3">
-        <v>5868883.0558354072</v>
+        <v>6022842.6050069844</v>
       </c>
       <c r="G25" s="3">
-        <v>3177905673.54983</v>
+        <v>4189112169.2183518</v>
       </c>
       <c r="H25" s="3">
         <v>1000144.4047619</v>
       </c>
       <c r="I25" s="3">
-        <v>9346781392.7936192</v>
+        <v>12352597636.524561</v>
       </c>
       <c r="J25" s="3">
-        <v>2751087.9568103808</v>
+        <v>2385482.2554470082</v>
       </c>
       <c r="K25" s="3">
-        <v>-50540592.033256143</v>
+        <v>-48079182.812815674</v>
       </c>
       <c r="L25" s="3">
-        <v>20912037.08884</v>
+        <v>18309841.876400001</v>
       </c>
       <c r="M25" s="3">
-        <v>2975999.99953407</v>
+        <v>2975999.9995673331</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1647,40 +1683,40 @@
         <v>44</v>
       </c>
       <c r="B26" s="2">
-        <v>193860.25854598591</v>
+        <v>55613.252594485122</v>
       </c>
       <c r="C26" s="2">
-        <v>338792.4034786069</v>
+        <v>106635.9079049346</v>
       </c>
       <c r="D26" s="3">
-        <v>193483546.1450986</v>
+        <v>195984421.54472271</v>
       </c>
       <c r="E26" s="3">
-        <v>14773719.394765399</v>
+        <v>15098678.82169186</v>
       </c>
       <c r="F26" s="3">
-        <v>5880537.6566628516</v>
+        <v>6025650.1798508968</v>
       </c>
       <c r="G26" s="3">
-        <v>3018212643.680769</v>
+        <v>4200302645.9698639</v>
       </c>
       <c r="H26" s="3">
         <v>1000144.4047619</v>
       </c>
       <c r="I26" s="3">
-        <v>8877096010.8257904</v>
+        <v>12385510803.440781</v>
       </c>
       <c r="J26" s="3">
-        <v>2785542.8067925442</v>
+        <v>2383333.2559480178</v>
       </c>
       <c r="K26" s="3">
-        <v>-50983087.518306777</v>
+        <v>-48054004.288364403</v>
       </c>
       <c r="L26" s="3">
-        <v>21418060.244339999</v>
+        <v>18300105.1164</v>
       </c>
       <c r="M26" s="3">
-        <v>2975999.9995396771</v>
+        <v>2975999.9995697499</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1688,40 +1724,40 @@
         <v>45</v>
       </c>
       <c r="B27" s="2">
-        <v>195012.57887703521</v>
+        <v>54629.66329225176</v>
       </c>
       <c r="C27" s="2">
-        <v>338792.4034786069</v>
+        <v>106635.9079049346</v>
       </c>
       <c r="D27" s="3">
-        <v>194812083.04312751</v>
+        <v>195677282.2483668</v>
       </c>
       <c r="E27" s="3">
-        <v>14946347.18305867</v>
+        <v>15058769.67238141</v>
       </c>
       <c r="F27" s="3">
-        <v>5957625.600128727</v>
+        <v>6007828.5169759234</v>
       </c>
       <c r="G27" s="3">
-        <v>3140494603.8229032</v>
+        <v>4189112169.2183518</v>
       </c>
       <c r="H27" s="3">
         <v>1000144.4047619</v>
       </c>
       <c r="I27" s="3">
-        <v>9236748834.773243</v>
+        <v>12352597636.524561</v>
       </c>
       <c r="J27" s="3">
-        <v>2760433.8764814492</v>
+        <v>2385482.25544701</v>
       </c>
       <c r="K27" s="3">
-        <v>-50628136.089262649</v>
+        <v>-48079182.812815651</v>
       </c>
       <c r="L27" s="3">
-        <v>21109775.839469999</v>
+        <v>18309841.876400001</v>
       </c>
       <c r="M27" s="3">
-        <v>2975999.9995383201</v>
+        <v>2975999.9995673331</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1729,40 +1765,40 @@
         <v>46</v>
       </c>
       <c r="B28" s="2">
-        <v>192403.97568553151</v>
+        <v>55613.252594485122</v>
       </c>
       <c r="C28" s="2">
-        <v>338792.4034786069</v>
+        <v>106635.9079049346</v>
       </c>
       <c r="D28" s="3">
-        <v>193287588.1154446</v>
+        <v>195984421.54472271</v>
       </c>
       <c r="E28" s="3">
-        <v>14748256.947085051</v>
+        <v>15098678.82169186</v>
       </c>
       <c r="F28" s="3">
-        <v>5869167.2524730517</v>
+        <v>6025650.1798508968</v>
       </c>
       <c r="G28" s="3">
-        <v>3096452140.4654489</v>
+        <v>4200302645.9698639</v>
       </c>
       <c r="H28" s="3">
         <v>1000144.4047619</v>
       </c>
       <c r="I28" s="3">
-        <v>9107212177.8395576</v>
+        <v>12385510803.440781</v>
       </c>
       <c r="J28" s="3">
-        <v>2788106.7343389448</v>
+        <v>2383333.2559480178</v>
       </c>
       <c r="K28" s="3">
-        <v>-50678169.069402806</v>
+        <v>-48054004.288364403</v>
       </c>
       <c r="L28" s="3">
-        <v>21241592.165139999</v>
+        <v>18300105.1164</v>
       </c>
       <c r="M28" s="3">
-        <v>2975999.9995511528</v>
+        <v>2975999.9995697499</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1770,40 +1806,40 @@
         <v>47</v>
       </c>
       <c r="B29" s="2">
-        <v>192924.97128426461</v>
+        <v>54457.132335109687</v>
       </c>
       <c r="C29" s="2">
-        <v>338792.4034786069</v>
+        <v>106635.9079049346</v>
       </c>
       <c r="D29" s="3">
-        <v>193855885.18666369</v>
+        <v>195633702.7325052</v>
       </c>
       <c r="E29" s="3">
-        <v>14822100.4862774</v>
+        <v>15053107.02541298</v>
       </c>
       <c r="F29" s="3">
-        <v>5902142.514630205</v>
+        <v>6005299.8290185248</v>
       </c>
       <c r="G29" s="3">
-        <v>3134527913.5633612</v>
+        <v>4189112169.2183518</v>
       </c>
       <c r="H29" s="3">
         <v>1000144.4047619</v>
       </c>
       <c r="I29" s="3">
-        <v>9219199745.7745914</v>
+        <v>12352597636.524561</v>
       </c>
       <c r="J29" s="3">
-        <v>2765778.0375669468</v>
+        <v>2385482.25544701</v>
       </c>
       <c r="K29" s="3">
-        <v>-50627992.742324233</v>
+        <v>-48079182.812815651</v>
       </c>
       <c r="L29" s="3">
-        <v>21105265.345720001</v>
+        <v>18309841.876400001</v>
       </c>
       <c r="M29" s="3">
-        <v>2975999.999543448</v>
+        <v>2975999.9995673331</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1811,40 +1847,40 @@
         <v>48</v>
       </c>
       <c r="B30" s="2">
-        <v>193754.633260931</v>
+        <v>55613.252594485122</v>
       </c>
       <c r="C30" s="2">
-        <v>338792.4034786069</v>
+        <v>106635.9079049346</v>
       </c>
       <c r="D30" s="3">
-        <v>194156558.30735579</v>
+        <v>195984421.54472271</v>
       </c>
       <c r="E30" s="3">
-        <v>14861169.431898201</v>
+        <v>15098678.82169186</v>
       </c>
       <c r="F30" s="3">
-        <v>5919588.9796580188</v>
+        <v>6025650.1798508968</v>
       </c>
       <c r="G30" s="3">
-        <v>3200998250.6617908</v>
+        <v>4200302645.9698639</v>
       </c>
       <c r="H30" s="3">
         <v>1000144.4047619</v>
       </c>
       <c r="I30" s="3">
-        <v>9414700737.2405605</v>
+        <v>12385510803.440781</v>
       </c>
       <c r="J30" s="3">
-        <v>2771682.1388107589</v>
+        <v>2383333.2559480178</v>
       </c>
       <c r="K30" s="3">
-        <v>-50367754.216976061</v>
+        <v>-48054004.288364403</v>
       </c>
       <c r="L30" s="3">
-        <v>20954395.518240001</v>
+        <v>18300105.1164</v>
       </c>
       <c r="M30" s="3">
-        <v>2975999.9995337059</v>
+        <v>2975999.9995697499</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -1852,40 +1888,40 @@
         <v>49</v>
       </c>
       <c r="B31" s="2">
-        <v>193499.65564904659</v>
+        <v>54457.132335109687</v>
       </c>
       <c r="C31" s="2">
-        <v>338792.4034786069</v>
+        <v>106635.9079049346</v>
       </c>
       <c r="D31" s="3">
-        <v>193360829.8649587</v>
+        <v>195633702.7325052</v>
       </c>
       <c r="E31" s="3">
-        <v>14757773.853426229</v>
+        <v>15053107.02541298</v>
       </c>
       <c r="F31" s="3">
-        <v>5873417.0823831297</v>
+        <v>6005299.8290185248</v>
       </c>
       <c r="G31" s="3">
-        <v>3021176438.7113929</v>
+        <v>4189112169.2183518</v>
       </c>
       <c r="H31" s="3">
         <v>1000144.4047619</v>
       </c>
       <c r="I31" s="3">
-        <v>8885813055.0335083</v>
+        <v>12352597636.524561</v>
       </c>
       <c r="J31" s="3">
-        <v>2775732.0125347641</v>
+        <v>2385482.25544701</v>
       </c>
       <c r="K31" s="3">
-        <v>-51011243.474367872</v>
+        <v>-48079182.812815651</v>
       </c>
       <c r="L31" s="3">
-        <v>21389448.068890002</v>
+        <v>18309841.876400001</v>
       </c>
       <c r="M31" s="3">
-        <v>2975999.9995410261</v>
+        <v>2975999.9995673331</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1893,40 +1929,450 @@
         <v>50</v>
       </c>
       <c r="B32" s="2">
-        <v>193986.6914532916</v>
+        <v>55785.783551627188</v>
       </c>
       <c r="C32" s="2">
-        <v>338792.4034786069</v>
+        <v>106635.9079049346</v>
       </c>
       <c r="D32" s="3">
-        <v>194244599.12038249</v>
+        <v>196028001.06058419</v>
       </c>
       <c r="E32" s="3">
-        <v>14872609.302973591</v>
+        <v>15104341.468660289</v>
       </c>
       <c r="F32" s="3">
-        <v>5924697.5206608046</v>
+        <v>6028178.8678082954</v>
       </c>
       <c r="G32" s="3">
-        <v>3106148989.6421609</v>
+        <v>4200302645.9698639</v>
       </c>
       <c r="H32" s="3">
         <v>1000144.4047619</v>
       </c>
       <c r="I32" s="3">
-        <v>9135732322.4769459</v>
+        <v>12385510803.440781</v>
       </c>
       <c r="J32" s="3">
-        <v>2773658.0580028719</v>
+        <v>2383333.2559480178</v>
       </c>
       <c r="K32" s="3">
-        <v>-50701445.006944537</v>
+        <v>-48054004.288364403</v>
       </c>
       <c r="L32" s="3">
-        <v>21211360.815219998</v>
+        <v>18300105.1164</v>
       </c>
       <c r="M32" s="3">
-        <v>2975999.9995346372</v>
+        <v>2975999.9995697499</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="2">
+        <v>54629.66329225176</v>
+      </c>
+      <c r="C33" s="2">
+        <v>106635.9079049346</v>
+      </c>
+      <c r="D33" s="3">
+        <v>195677282.2483668</v>
+      </c>
+      <c r="E33" s="3">
+        <v>15058769.67238141</v>
+      </c>
+      <c r="F33" s="3">
+        <v>6007828.5169759234</v>
+      </c>
+      <c r="G33" s="3">
+        <v>4189112169.2183518</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1000144.4047619</v>
+      </c>
+      <c r="I33" s="3">
+        <v>12352597636.524561</v>
+      </c>
+      <c r="J33" s="3">
+        <v>2385482.25544701</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-48079182.812815651</v>
+      </c>
+      <c r="L33" s="3">
+        <v>18309841.876400001</v>
+      </c>
+      <c r="M33" s="3">
+        <v>2975999.9995673331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="2">
+        <v>55785.783551627188</v>
+      </c>
+      <c r="C34" s="2">
+        <v>106635.9079049346</v>
+      </c>
+      <c r="D34" s="3">
+        <v>196028001.06058419</v>
+      </c>
+      <c r="E34" s="3">
+        <v>15104341.468660289</v>
+      </c>
+      <c r="F34" s="3">
+        <v>6028178.8678082954</v>
+      </c>
+      <c r="G34" s="3">
+        <v>4200302645.9698639</v>
+      </c>
+      <c r="H34" s="3">
+        <v>1000144.4047619</v>
+      </c>
+      <c r="I34" s="3">
+        <v>12385510803.440781</v>
+      </c>
+      <c r="J34" s="3">
+        <v>2383333.2559480178</v>
+      </c>
+      <c r="K34" s="3">
+        <v>-48054004.288364403</v>
+      </c>
+      <c r="L34" s="3">
+        <v>18300105.1164</v>
+      </c>
+      <c r="M34" s="3">
+        <v>2975999.9995697499</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="2">
+        <v>54457.132335109687</v>
+      </c>
+      <c r="C35" s="2">
+        <v>106635.9079049346</v>
+      </c>
+      <c r="D35" s="3">
+        <v>195633702.7325052</v>
+      </c>
+      <c r="E35" s="3">
+        <v>15053107.02541298</v>
+      </c>
+      <c r="F35" s="3">
+        <v>6005299.8290185248</v>
+      </c>
+      <c r="G35" s="3">
+        <v>4189112169.2183518</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1000144.4047619</v>
+      </c>
+      <c r="I35" s="3">
+        <v>12352597636.524561</v>
+      </c>
+      <c r="J35" s="3">
+        <v>2385482.25544701</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-48079182.812815651</v>
+      </c>
+      <c r="L35" s="3">
+        <v>18309841.876400001</v>
+      </c>
+      <c r="M35" s="3">
+        <v>2975999.9995673331</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="2">
+        <v>55613.252594485122</v>
+      </c>
+      <c r="C36" s="2">
+        <v>106635.9079049346</v>
+      </c>
+      <c r="D36" s="3">
+        <v>195984421.54472271</v>
+      </c>
+      <c r="E36" s="3">
+        <v>15098678.82169186</v>
+      </c>
+      <c r="F36" s="3">
+        <v>6025650.1798508968</v>
+      </c>
+      <c r="G36" s="3">
+        <v>4200302645.9698639</v>
+      </c>
+      <c r="H36" s="3">
+        <v>1000144.4047619</v>
+      </c>
+      <c r="I36" s="3">
+        <v>12385510803.440781</v>
+      </c>
+      <c r="J36" s="3">
+        <v>2383333.2559480178</v>
+      </c>
+      <c r="K36" s="3">
+        <v>-48054004.288364403</v>
+      </c>
+      <c r="L36" s="3">
+        <v>18300105.1164</v>
+      </c>
+      <c r="M36" s="3">
+        <v>2975999.9995697499</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="2">
+        <v>54629.66329225176</v>
+      </c>
+      <c r="C37" s="2">
+        <v>106635.9079049346</v>
+      </c>
+      <c r="D37" s="3">
+        <v>195677282.2483668</v>
+      </c>
+      <c r="E37" s="3">
+        <v>15058769.67238141</v>
+      </c>
+      <c r="F37" s="3">
+        <v>6007828.5169759234</v>
+      </c>
+      <c r="G37" s="3">
+        <v>4189112169.2183518</v>
+      </c>
+      <c r="H37" s="3">
+        <v>1000144.4047619</v>
+      </c>
+      <c r="I37" s="3">
+        <v>12352597636.524561</v>
+      </c>
+      <c r="J37" s="3">
+        <v>2385482.25544701</v>
+      </c>
+      <c r="K37" s="3">
+        <v>-48079182.812815651</v>
+      </c>
+      <c r="L37" s="3">
+        <v>18309841.876400001</v>
+      </c>
+      <c r="M37" s="3">
+        <v>2975999.9995673331</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="2">
+        <v>55785.783551627188</v>
+      </c>
+      <c r="C38" s="2">
+        <v>106635.9079049346</v>
+      </c>
+      <c r="D38" s="3">
+        <v>196028001.06058419</v>
+      </c>
+      <c r="E38" s="3">
+        <v>15104341.468660289</v>
+      </c>
+      <c r="F38" s="3">
+        <v>6028178.8678082954</v>
+      </c>
+      <c r="G38" s="3">
+        <v>4200302645.9698639</v>
+      </c>
+      <c r="H38" s="3">
+        <v>1000144.4047619</v>
+      </c>
+      <c r="I38" s="3">
+        <v>12385510803.440781</v>
+      </c>
+      <c r="J38" s="3">
+        <v>2383333.2559480178</v>
+      </c>
+      <c r="K38" s="3">
+        <v>-48054004.288364403</v>
+      </c>
+      <c r="L38" s="3">
+        <v>18300105.1164</v>
+      </c>
+      <c r="M38" s="3">
+        <v>2975999.9995697499</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="2">
+        <v>54629.66329225176</v>
+      </c>
+      <c r="C39" s="2">
+        <v>106635.9079049346</v>
+      </c>
+      <c r="D39" s="3">
+        <v>195677282.2483668</v>
+      </c>
+      <c r="E39" s="3">
+        <v>15058769.67238141</v>
+      </c>
+      <c r="F39" s="3">
+        <v>6007828.5169759234</v>
+      </c>
+      <c r="G39" s="3">
+        <v>4189112169.2183518</v>
+      </c>
+      <c r="H39" s="3">
+        <v>1000144.4047619</v>
+      </c>
+      <c r="I39" s="3">
+        <v>12352597636.524561</v>
+      </c>
+      <c r="J39" s="3">
+        <v>2385482.25544701</v>
+      </c>
+      <c r="K39" s="3">
+        <v>-48079182.812815651</v>
+      </c>
+      <c r="L39" s="3">
+        <v>18309841.876400001</v>
+      </c>
+      <c r="M39" s="3">
+        <v>2975999.9995673331</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="2">
+        <v>55785.783551627188</v>
+      </c>
+      <c r="C40" s="2">
+        <v>106635.9079049346</v>
+      </c>
+      <c r="D40" s="3">
+        <v>196028001.06058419</v>
+      </c>
+      <c r="E40" s="3">
+        <v>15104341.468660289</v>
+      </c>
+      <c r="F40" s="3">
+        <v>6028178.8678082954</v>
+      </c>
+      <c r="G40" s="3">
+        <v>4200302645.9698639</v>
+      </c>
+      <c r="H40" s="3">
+        <v>1000144.4047619</v>
+      </c>
+      <c r="I40" s="3">
+        <v>12385510803.440781</v>
+      </c>
+      <c r="J40" s="3">
+        <v>2383333.2559480178</v>
+      </c>
+      <c r="K40" s="3">
+        <v>-48054004.288364403</v>
+      </c>
+      <c r="L40" s="3">
+        <v>18300105.1164</v>
+      </c>
+      <c r="M40" s="3">
+        <v>2975999.9995697499</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="2">
+        <v>54457.132335109687</v>
+      </c>
+      <c r="C41" s="2">
+        <v>106635.9079049346</v>
+      </c>
+      <c r="D41" s="3">
+        <v>195633702.7325052</v>
+      </c>
+      <c r="E41" s="3">
+        <v>15053107.02541298</v>
+      </c>
+      <c r="F41" s="3">
+        <v>6005299.8290185248</v>
+      </c>
+      <c r="G41" s="3">
+        <v>4189112169.2183518</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1000144.4047619</v>
+      </c>
+      <c r="I41" s="3">
+        <v>12352597636.524561</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2385482.25544701</v>
+      </c>
+      <c r="K41" s="3">
+        <v>-48079182.812815651</v>
+      </c>
+      <c r="L41" s="3">
+        <v>18309841.876400001</v>
+      </c>
+      <c r="M41" s="3">
+        <v>2975999.9995673331</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="2">
+        <v>55785.783551627188</v>
+      </c>
+      <c r="C42" s="2">
+        <v>106635.9079049346</v>
+      </c>
+      <c r="D42" s="3">
+        <v>196028001.06058419</v>
+      </c>
+      <c r="E42" s="3">
+        <v>15104341.468660289</v>
+      </c>
+      <c r="F42" s="3">
+        <v>6028178.8678082954</v>
+      </c>
+      <c r="G42" s="3">
+        <v>4200302645.9698639</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1000144.4047619</v>
+      </c>
+      <c r="I42" s="3">
+        <v>12385510803.440781</v>
+      </c>
+      <c r="J42" s="3">
+        <v>2383333.2559480178</v>
+      </c>
+      <c r="K42" s="3">
+        <v>-48054004.288364403</v>
+      </c>
+      <c r="L42" s="3">
+        <v>18300105.1164</v>
+      </c>
+      <c r="M42" s="3">
+        <v>2975999.9995697499</v>
       </c>
     </row>
   </sheetData>
@@ -1936,69 +2382,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -3122,7 +3570,7 @@
         <v>39</v>
       </c>
       <c r="B20">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -3134,10 +3582,10 @@
         <v>3</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -3167,16 +3615,16 @@
         <v>21</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="R20">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -3184,22 +3632,22 @@
         <v>40</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -3208,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="K21">
         <v>109</v>
@@ -3223,19 +3671,19 @@
         <v>38</v>
       </c>
       <c r="O21">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="P21">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -3246,22 +3694,22 @@
         <v>41</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -3270,10 +3718,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="K22">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="L22">
         <v>65</v>
@@ -3282,10 +3730,10 @@
         <v>55</v>
       </c>
       <c r="N22">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="O22">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -3308,22 +3756,22 @@
         <v>42</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>111</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -3332,19 +3780,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="K23">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="L23">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="M23">
         <v>65</v>
       </c>
       <c r="N23">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -3370,22 +3818,22 @@
         <v>43</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
         <v>3</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
       <c r="G24">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -3394,19 +3842,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="K24">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="L24">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="M24">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N24">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -3432,22 +3880,22 @@
         <v>44</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -3456,19 +3904,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="K25">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="L25">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="M25">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="N25">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -3494,22 +3942,22 @@
         <v>45</v>
       </c>
       <c r="B26">
+        <v>110</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
         <v>3</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>6</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
       <c r="G26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -3518,19 +3966,19 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="K26">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="L26">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="M26">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="N26">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -3556,22 +4004,22 @@
         <v>46</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3580,19 +4028,19 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="K27">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="L27">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="M27">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="N27">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -3618,22 +4066,22 @@
         <v>47</v>
       </c>
       <c r="B28">
+        <v>110</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
         <v>3</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>6</v>
-      </c>
       <c r="G28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -3642,19 +4090,19 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="K28">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="L28">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="M28">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="N28">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -3680,22 +4128,22 @@
         <v>48</v>
       </c>
       <c r="B29">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3704,16 +4152,16 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="K29">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="L29">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="M29">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="N29">
         <v>23</v>
@@ -3742,22 +4190,22 @@
         <v>49</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
         <v>3</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3766,19 +4214,19 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="K30">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="L30">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="M30">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="N30">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -3804,60 +4252,680 @@
         <v>50</v>
       </c>
       <c r="B31">
+        <v>110</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>110</v>
+      </c>
+      <c r="K31">
+        <v>110</v>
+      </c>
+      <c r="L31">
+        <v>66</v>
+      </c>
+      <c r="M31">
+        <v>66</v>
+      </c>
+      <c r="N31">
+        <v>23</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32">
+        <v>110</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
         <v>3</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>6</v>
-      </c>
-      <c r="E31">
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>110</v>
+      </c>
+      <c r="K32">
+        <v>110</v>
+      </c>
+      <c r="L32">
+        <v>66</v>
+      </c>
+      <c r="M32">
+        <v>66</v>
+      </c>
+      <c r="N32">
+        <v>23</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33">
+        <v>110</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>110</v>
+      </c>
+      <c r="K33">
+        <v>110</v>
+      </c>
+      <c r="L33">
+        <v>66</v>
+      </c>
+      <c r="M33">
+        <v>66</v>
+      </c>
+      <c r="N33">
+        <v>23</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34">
+        <v>110</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
         <v>3</v>
       </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>110</v>
+      </c>
+      <c r="K34">
+        <v>110</v>
+      </c>
+      <c r="L34">
+        <v>66</v>
+      </c>
+      <c r="M34">
+        <v>66</v>
+      </c>
+      <c r="N34">
+        <v>23</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35">
+        <v>110</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>110</v>
+      </c>
+      <c r="K35">
+        <v>110</v>
+      </c>
+      <c r="L35">
+        <v>66</v>
+      </c>
+      <c r="M35">
+        <v>66</v>
+      </c>
+      <c r="N35">
+        <v>23</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36">
+        <v>110</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
         <v>3</v>
       </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>141</v>
-      </c>
-      <c r="K31">
-        <v>141</v>
-      </c>
-      <c r="L31">
-        <v>84</v>
-      </c>
-      <c r="M31">
-        <v>85</v>
-      </c>
-      <c r="N31">
-        <v>28</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>110</v>
+      </c>
+      <c r="K36">
+        <v>110</v>
+      </c>
+      <c r="L36">
+        <v>66</v>
+      </c>
+      <c r="M36">
+        <v>66</v>
+      </c>
+      <c r="N36">
+        <v>23</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37">
+        <v>110</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>110</v>
+      </c>
+      <c r="K37">
+        <v>110</v>
+      </c>
+      <c r="L37">
+        <v>66</v>
+      </c>
+      <c r="M37">
+        <v>66</v>
+      </c>
+      <c r="N37">
+        <v>23</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38">
+        <v>110</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>110</v>
+      </c>
+      <c r="K38">
+        <v>110</v>
+      </c>
+      <c r="L38">
+        <v>66</v>
+      </c>
+      <c r="M38">
+        <v>66</v>
+      </c>
+      <c r="N38">
+        <v>23</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39">
+        <v>110</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>110</v>
+      </c>
+      <c r="K39">
+        <v>110</v>
+      </c>
+      <c r="L39">
+        <v>66</v>
+      </c>
+      <c r="M39">
+        <v>66</v>
+      </c>
+      <c r="N39">
+        <v>23</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40">
+        <v>110</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>110</v>
+      </c>
+      <c r="K40">
+        <v>110</v>
+      </c>
+      <c r="L40">
+        <v>66</v>
+      </c>
+      <c r="M40">
+        <v>66</v>
+      </c>
+      <c r="N40">
+        <v>23</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41">
+        <v>110</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>110</v>
+      </c>
+      <c r="K41">
+        <v>110</v>
+      </c>
+      <c r="L41">
+        <v>66</v>
+      </c>
+      <c r="M41">
+        <v>66</v>
+      </c>
+      <c r="N41">
+        <v>23</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
         <v>0</v>
       </c>
     </row>

--- a/squire_results_example.xlsx
+++ b/squire_results_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studie\Farm-Squire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BC1C334-09E4-438E-BD30-440642A4CD48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A5296D-49BF-46F0-98DD-608BE3EB6C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="50910" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="50910" windowHeight="21840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="statistics" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="276">
   <si>
     <t>revenue_balance_animal</t>
   </si>
@@ -867,7 +867,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -933,9 +933,9 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1242,13 +1242,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="13" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" customWidth="1"/>
+    <col min="12" max="12" width="29.28515625" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1293,40 +1303,40 @@
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7132,10 +7142,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7144,11 +7154,9 @@
     <col min="3" max="3" width="21.140625" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
     <col min="5" max="5" width="20.140625" customWidth="1"/>
-    <col min="6" max="26" width="4.42578125" style="3" customWidth="1"/>
-    <col min="27" max="27" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>95</v>
       </c>
@@ -7161,71 +7169,8 @@
       <c r="E1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>105</v>
       </c>
@@ -7241,71 +7186,8 @@
       <c r="E2" s="4">
         <v>0</v>
       </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3">
-        <v>0</v>
-      </c>
-      <c r="N2" s="3">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>0</v>
-      </c>
-      <c r="R2" s="3">
-        <v>0</v>
-      </c>
-      <c r="S2" s="3">
-        <v>0</v>
-      </c>
-      <c r="T2" s="3">
-        <v>0</v>
-      </c>
-      <c r="U2" s="3">
-        <v>0</v>
-      </c>
-      <c r="V2" s="3">
-        <v>0</v>
-      </c>
-      <c r="W2" s="3">
-        <v>0</v>
-      </c>
-      <c r="X2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>106</v>
       </c>
@@ -7321,71 +7203,8 @@
       <c r="E3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>0</v>
-      </c>
-      <c r="R3" s="3">
-        <v>0</v>
-      </c>
-      <c r="S3" s="3">
-        <v>0</v>
-      </c>
-      <c r="T3" s="3">
-        <v>0</v>
-      </c>
-      <c r="U3" s="3">
-        <v>0</v>
-      </c>
-      <c r="V3" s="3">
-        <v>0</v>
-      </c>
-      <c r="W3" s="3">
-        <v>0</v>
-      </c>
-      <c r="X3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>107</v>
       </c>
@@ -7401,71 +7220,8 @@
       <c r="E4" s="4">
         <v>0</v>
       </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>0</v>
-      </c>
-      <c r="R4" s="3">
-        <v>0</v>
-      </c>
-      <c r="S4" s="3">
-        <v>0</v>
-      </c>
-      <c r="T4" s="3">
-        <v>0</v>
-      </c>
-      <c r="U4" s="3">
-        <v>0</v>
-      </c>
-      <c r="V4" s="3">
-        <v>0</v>
-      </c>
-      <c r="W4" s="3">
-        <v>0</v>
-      </c>
-      <c r="X4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>108</v>
       </c>
@@ -7481,71 +7237,8 @@
       <c r="E5" s="4">
         <v>0</v>
       </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>0</v>
-      </c>
-      <c r="R5" s="3">
-        <v>0</v>
-      </c>
-      <c r="S5" s="3">
-        <v>0</v>
-      </c>
-      <c r="T5" s="3">
-        <v>0</v>
-      </c>
-      <c r="U5" s="3">
-        <v>0</v>
-      </c>
-      <c r="V5" s="3">
-        <v>0</v>
-      </c>
-      <c r="W5" s="3">
-        <v>0</v>
-      </c>
-      <c r="X5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>109</v>
       </c>
@@ -7561,71 +7254,8 @@
       <c r="E6" s="4">
         <v>0</v>
       </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>0</v>
-      </c>
-      <c r="R6" s="3">
-        <v>0</v>
-      </c>
-      <c r="S6" s="3">
-        <v>0</v>
-      </c>
-      <c r="T6" s="3">
-        <v>0</v>
-      </c>
-      <c r="U6" s="3">
-        <v>0</v>
-      </c>
-      <c r="V6" s="3">
-        <v>0</v>
-      </c>
-      <c r="W6" s="3">
-        <v>0</v>
-      </c>
-      <c r="X6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>110</v>
       </c>
@@ -7641,71 +7271,8 @@
       <c r="E7" s="4">
         <v>0</v>
       </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>0</v>
-      </c>
-      <c r="R7" s="3">
-        <v>0</v>
-      </c>
-      <c r="S7" s="3">
-        <v>0</v>
-      </c>
-      <c r="T7" s="3">
-        <v>0</v>
-      </c>
-      <c r="U7" s="3">
-        <v>0</v>
-      </c>
-      <c r="V7" s="3">
-        <v>0</v>
-      </c>
-      <c r="W7" s="3">
-        <v>0</v>
-      </c>
-      <c r="X7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>111</v>
       </c>
@@ -7721,71 +7288,8 @@
       <c r="E8" s="4">
         <v>0</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
-      <c r="X8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>112</v>
       </c>
@@ -7801,71 +7305,8 @@
       <c r="E9" s="4">
         <v>0</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-      <c r="W9" s="3">
-        <v>0</v>
-      </c>
-      <c r="X9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>113</v>
       </c>
@@ -7881,71 +7322,8 @@
       <c r="E10" s="4">
         <v>0</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
-      <c r="X10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>114</v>
       </c>
@@ -7961,71 +7339,8 @@
       <c r="E11" s="4">
         <v>0</v>
       </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3">
-        <v>0</v>
-      </c>
-      <c r="M11" s="3">
-        <v>0</v>
-      </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="O11" s="3">
-        <v>0</v>
-      </c>
-      <c r="P11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>0</v>
-      </c>
-      <c r="R11" s="3">
-        <v>0</v>
-      </c>
-      <c r="S11" s="3">
-        <v>0</v>
-      </c>
-      <c r="T11" s="3">
-        <v>0</v>
-      </c>
-      <c r="U11" s="3">
-        <v>0</v>
-      </c>
-      <c r="V11" s="3">
-        <v>0</v>
-      </c>
-      <c r="W11" s="3">
-        <v>0</v>
-      </c>
-      <c r="X11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>115</v>
       </c>
@@ -8041,71 +7356,8 @@
       <c r="E12" s="4">
         <v>0</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
-      <c r="V12" s="3">
-        <v>0</v>
-      </c>
-      <c r="W12" s="3">
-        <v>0</v>
-      </c>
-      <c r="X12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>116</v>
       </c>
@@ -8121,71 +7373,8 @@
       <c r="E13" s="4">
         <v>0</v>
       </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0</v>
-      </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3">
-        <v>0</v>
-      </c>
-      <c r="P13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>0</v>
-      </c>
-      <c r="R13" s="3">
-        <v>0</v>
-      </c>
-      <c r="S13" s="3">
-        <v>0</v>
-      </c>
-      <c r="T13" s="3">
-        <v>0</v>
-      </c>
-      <c r="U13" s="3">
-        <v>0</v>
-      </c>
-      <c r="V13" s="3">
-        <v>0</v>
-      </c>
-      <c r="W13" s="3">
-        <v>0</v>
-      </c>
-      <c r="X13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>117</v>
       </c>
@@ -8201,71 +7390,8 @@
       <c r="E14" s="4">
         <v>0</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>118</v>
       </c>
@@ -8281,71 +7407,8 @@
       <c r="E15" s="4">
         <v>0</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
-      <c r="X15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>119</v>
       </c>
@@ -8361,71 +7424,8 @@
       <c r="E16" s="4">
         <v>509</v>
       </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="K16" s="3">
-        <v>0</v>
-      </c>
-      <c r="L16" s="3">
-        <v>0</v>
-      </c>
-      <c r="M16" s="3">
-        <v>0</v>
-      </c>
-      <c r="N16" s="3">
-        <v>0</v>
-      </c>
-      <c r="O16" s="3">
-        <v>0</v>
-      </c>
-      <c r="P16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>0</v>
-      </c>
-      <c r="R16" s="3">
-        <v>0</v>
-      </c>
-      <c r="S16" s="3">
-        <v>0</v>
-      </c>
-      <c r="T16" s="3">
-        <v>0</v>
-      </c>
-      <c r="U16" s="3">
-        <v>0</v>
-      </c>
-      <c r="V16" s="3">
-        <v>0</v>
-      </c>
-      <c r="W16" s="3">
-        <v>0</v>
-      </c>
-      <c r="X16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>120</v>
       </c>
@@ -8441,71 +7441,8 @@
       <c r="E17" s="4">
         <v>509</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
-      <c r="X17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>121</v>
       </c>
@@ -8521,71 +7458,8 @@
       <c r="E18" s="4">
         <v>509</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>122</v>
       </c>
@@ -8601,71 +7475,8 @@
       <c r="E19" s="4">
         <v>0</v>
       </c>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0</v>
-      </c>
-      <c r="K19" s="3">
-        <v>0</v>
-      </c>
-      <c r="L19" s="3">
-        <v>0</v>
-      </c>
-      <c r="M19" s="3">
-        <v>0</v>
-      </c>
-      <c r="N19" s="3">
-        <v>0</v>
-      </c>
-      <c r="O19" s="3">
-        <v>0</v>
-      </c>
-      <c r="P19" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>0</v>
-      </c>
-      <c r="R19" s="3">
-        <v>0</v>
-      </c>
-      <c r="S19" s="3">
-        <v>0</v>
-      </c>
-      <c r="T19" s="3">
-        <v>0</v>
-      </c>
-      <c r="U19" s="3">
-        <v>0</v>
-      </c>
-      <c r="V19" s="3">
-        <v>0</v>
-      </c>
-      <c r="W19" s="3">
-        <v>0</v>
-      </c>
-      <c r="X19" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>123</v>
       </c>
@@ -8681,71 +7492,8 @@
       <c r="E20" s="4">
         <v>0</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>124</v>
       </c>
@@ -8761,71 +7509,8 @@
       <c r="E21" s="4">
         <v>0</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>125</v>
       </c>
@@ -8841,71 +7526,8 @@
       <c r="E22" s="4">
         <v>0</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>126</v>
       </c>
@@ -8921,71 +7543,8 @@
       <c r="E23" s="4">
         <v>0</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>127</v>
       </c>
@@ -9001,71 +7560,8 @@
       <c r="E24" s="4">
         <v>0</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>128</v>
       </c>
@@ -9081,71 +7577,8 @@
       <c r="E25" s="4">
         <v>0</v>
       </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0</v>
-      </c>
-      <c r="I25" s="3">
-        <v>0</v>
-      </c>
-      <c r="J25" s="3">
-        <v>0</v>
-      </c>
-      <c r="K25" s="3">
-        <v>0</v>
-      </c>
-      <c r="L25" s="3">
-        <v>0</v>
-      </c>
-      <c r="M25" s="3">
-        <v>0</v>
-      </c>
-      <c r="N25" s="3">
-        <v>0</v>
-      </c>
-      <c r="O25" s="3">
-        <v>0</v>
-      </c>
-      <c r="P25" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="3">
-        <v>0</v>
-      </c>
-      <c r="R25" s="3">
-        <v>0</v>
-      </c>
-      <c r="S25" s="3">
-        <v>0</v>
-      </c>
-      <c r="T25" s="3">
-        <v>0</v>
-      </c>
-      <c r="U25" s="3">
-        <v>0</v>
-      </c>
-      <c r="V25" s="3">
-        <v>0</v>
-      </c>
-      <c r="W25" s="3">
-        <v>0</v>
-      </c>
-      <c r="X25" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>129</v>
       </c>
@@ -9161,71 +7594,8 @@
       <c r="E26" s="4">
         <v>0</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>130</v>
       </c>
@@ -9241,71 +7611,8 @@
       <c r="E27" s="4">
         <v>0</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>131</v>
       </c>
@@ -9321,71 +7628,8 @@
       <c r="E28" s="4">
         <v>0</v>
       </c>
-      <c r="F28" s="3">
-        <v>0</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3">
-        <v>0</v>
-      </c>
-      <c r="I28" s="3">
-        <v>0</v>
-      </c>
-      <c r="J28" s="3">
-        <v>0</v>
-      </c>
-      <c r="K28" s="3">
-        <v>0</v>
-      </c>
-      <c r="L28" s="3">
-        <v>0</v>
-      </c>
-      <c r="M28" s="3">
-        <v>0</v>
-      </c>
-      <c r="N28" s="3">
-        <v>0</v>
-      </c>
-      <c r="O28" s="3">
-        <v>0</v>
-      </c>
-      <c r="P28" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="3">
-        <v>0</v>
-      </c>
-      <c r="R28" s="3">
-        <v>0</v>
-      </c>
-      <c r="S28" s="3">
-        <v>0</v>
-      </c>
-      <c r="T28" s="3">
-        <v>0</v>
-      </c>
-      <c r="U28" s="3">
-        <v>0</v>
-      </c>
-      <c r="V28" s="3">
-        <v>0</v>
-      </c>
-      <c r="W28" s="3">
-        <v>0</v>
-      </c>
-      <c r="X28" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>132</v>
       </c>
@@ -9401,71 +7645,8 @@
       <c r="E29" s="4">
         <v>0</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>133</v>
       </c>
@@ -9481,71 +7662,8 @@
       <c r="E30" s="4">
         <v>0</v>
       </c>
-      <c r="F30" s="3">
-        <v>0</v>
-      </c>
-      <c r="G30" s="3">
-        <v>0</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0</v>
-      </c>
-      <c r="I30" s="3">
-        <v>0</v>
-      </c>
-      <c r="J30" s="3">
-        <v>0</v>
-      </c>
-      <c r="K30" s="3">
-        <v>0</v>
-      </c>
-      <c r="L30" s="3">
-        <v>0</v>
-      </c>
-      <c r="M30" s="3">
-        <v>0</v>
-      </c>
-      <c r="N30" s="3">
-        <v>0</v>
-      </c>
-      <c r="O30" s="3">
-        <v>0</v>
-      </c>
-      <c r="P30" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="3">
-        <v>0</v>
-      </c>
-      <c r="R30" s="3">
-        <v>0</v>
-      </c>
-      <c r="S30" s="3">
-        <v>0</v>
-      </c>
-      <c r="T30" s="3">
-        <v>0</v>
-      </c>
-      <c r="U30" s="3">
-        <v>0</v>
-      </c>
-      <c r="V30" s="3">
-        <v>0</v>
-      </c>
-      <c r="W30" s="3">
-        <v>0</v>
-      </c>
-      <c r="X30" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>134</v>
       </c>
@@ -9561,71 +7679,8 @@
       <c r="E31" s="4">
         <v>0</v>
       </c>
-      <c r="F31" s="3">
-        <v>0</v>
-      </c>
-      <c r="G31" s="3">
-        <v>0</v>
-      </c>
-      <c r="H31" s="3">
-        <v>0</v>
-      </c>
-      <c r="I31" s="3">
-        <v>0</v>
-      </c>
-      <c r="J31" s="3">
-        <v>0</v>
-      </c>
-      <c r="K31" s="3">
-        <v>0</v>
-      </c>
-      <c r="L31" s="3">
-        <v>0</v>
-      </c>
-      <c r="M31" s="3">
-        <v>0</v>
-      </c>
-      <c r="N31" s="3">
-        <v>0</v>
-      </c>
-      <c r="O31" s="3">
-        <v>0</v>
-      </c>
-      <c r="P31" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>0</v>
-      </c>
-      <c r="R31" s="3">
-        <v>0</v>
-      </c>
-      <c r="S31" s="3">
-        <v>0</v>
-      </c>
-      <c r="T31" s="3">
-        <v>0</v>
-      </c>
-      <c r="U31" s="3">
-        <v>0</v>
-      </c>
-      <c r="V31" s="3">
-        <v>0</v>
-      </c>
-      <c r="W31" s="3">
-        <v>0</v>
-      </c>
-      <c r="X31" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>135</v>
       </c>
@@ -9641,71 +7696,8 @@
       <c r="E32" s="4">
         <v>0</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>136</v>
       </c>
@@ -9721,71 +7713,8 @@
       <c r="E33" s="4">
         <v>0</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>137</v>
       </c>
@@ -9801,71 +7730,8 @@
       <c r="E34" s="4">
         <v>0</v>
       </c>
-      <c r="F34" s="3">
-        <v>0</v>
-      </c>
-      <c r="G34" s="3">
-        <v>0</v>
-      </c>
-      <c r="H34" s="3">
-        <v>0</v>
-      </c>
-      <c r="I34" s="3">
-        <v>0</v>
-      </c>
-      <c r="J34" s="3">
-        <v>0</v>
-      </c>
-      <c r="K34" s="3">
-        <v>0</v>
-      </c>
-      <c r="L34" s="3">
-        <v>0</v>
-      </c>
-      <c r="M34" s="3">
-        <v>0</v>
-      </c>
-      <c r="N34" s="3">
-        <v>0</v>
-      </c>
-      <c r="O34" s="3">
-        <v>0</v>
-      </c>
-      <c r="P34" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="3">
-        <v>0</v>
-      </c>
-      <c r="R34" s="3">
-        <v>0</v>
-      </c>
-      <c r="S34" s="3">
-        <v>0</v>
-      </c>
-      <c r="T34" s="3">
-        <v>0</v>
-      </c>
-      <c r="U34" s="3">
-        <v>0</v>
-      </c>
-      <c r="V34" s="3">
-        <v>0</v>
-      </c>
-      <c r="W34" s="3">
-        <v>0</v>
-      </c>
-      <c r="X34" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>138</v>
       </c>
@@ -9881,71 +7747,8 @@
       <c r="E35" s="4">
         <v>0</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>139</v>
       </c>
@@ -9961,71 +7764,8 @@
       <c r="E36" s="4">
         <v>0</v>
       </c>
-      <c r="F36" s="3">
-        <v>0</v>
-      </c>
-      <c r="G36" s="3">
-        <v>0</v>
-      </c>
-      <c r="H36" s="3">
-        <v>0</v>
-      </c>
-      <c r="I36" s="3">
-        <v>0</v>
-      </c>
-      <c r="J36" s="3">
-        <v>0</v>
-      </c>
-      <c r="K36" s="3">
-        <v>0</v>
-      </c>
-      <c r="L36" s="3">
-        <v>0</v>
-      </c>
-      <c r="M36" s="3">
-        <v>0</v>
-      </c>
-      <c r="N36" s="3">
-        <v>0</v>
-      </c>
-      <c r="O36" s="3">
-        <v>0</v>
-      </c>
-      <c r="P36" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="3">
-        <v>0</v>
-      </c>
-      <c r="R36" s="3">
-        <v>0</v>
-      </c>
-      <c r="S36" s="3">
-        <v>0</v>
-      </c>
-      <c r="T36" s="3">
-        <v>0</v>
-      </c>
-      <c r="U36" s="3">
-        <v>0</v>
-      </c>
-      <c r="V36" s="3">
-        <v>0</v>
-      </c>
-      <c r="W36" s="3">
-        <v>0</v>
-      </c>
-      <c r="X36" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>140</v>
       </c>
@@ -10041,71 +7781,8 @@
       <c r="E37" s="4">
         <v>0</v>
       </c>
-      <c r="F37" s="3">
-        <v>0</v>
-      </c>
-      <c r="G37" s="3">
-        <v>0</v>
-      </c>
-      <c r="H37" s="3">
-        <v>0</v>
-      </c>
-      <c r="I37" s="3">
-        <v>0</v>
-      </c>
-      <c r="J37" s="3">
-        <v>0</v>
-      </c>
-      <c r="K37" s="3">
-        <v>0</v>
-      </c>
-      <c r="L37" s="3">
-        <v>0</v>
-      </c>
-      <c r="M37" s="3">
-        <v>0</v>
-      </c>
-      <c r="N37" s="3">
-        <v>0</v>
-      </c>
-      <c r="O37" s="3">
-        <v>0</v>
-      </c>
-      <c r="P37" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="3">
-        <v>0</v>
-      </c>
-      <c r="R37" s="3">
-        <v>0</v>
-      </c>
-      <c r="S37" s="3">
-        <v>0</v>
-      </c>
-      <c r="T37" s="3">
-        <v>0</v>
-      </c>
-      <c r="U37" s="3">
-        <v>0</v>
-      </c>
-      <c r="V37" s="3">
-        <v>0</v>
-      </c>
-      <c r="W37" s="3">
-        <v>0</v>
-      </c>
-      <c r="X37" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>141</v>
       </c>
@@ -10121,71 +7798,8 @@
       <c r="E38" s="4">
         <v>0</v>
       </c>
-      <c r="F38" s="3">
-        <v>0</v>
-      </c>
-      <c r="G38" s="3">
-        <v>0</v>
-      </c>
-      <c r="H38" s="3">
-        <v>0</v>
-      </c>
-      <c r="I38" s="3">
-        <v>0</v>
-      </c>
-      <c r="J38" s="3">
-        <v>0</v>
-      </c>
-      <c r="K38" s="3">
-        <v>0</v>
-      </c>
-      <c r="L38" s="3">
-        <v>0</v>
-      </c>
-      <c r="M38" s="3">
-        <v>0</v>
-      </c>
-      <c r="N38" s="3">
-        <v>0</v>
-      </c>
-      <c r="O38" s="3">
-        <v>0</v>
-      </c>
-      <c r="P38" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="3">
-        <v>0</v>
-      </c>
-      <c r="R38" s="3">
-        <v>0</v>
-      </c>
-      <c r="S38" s="3">
-        <v>0</v>
-      </c>
-      <c r="T38" s="3">
-        <v>0</v>
-      </c>
-      <c r="U38" s="3">
-        <v>0</v>
-      </c>
-      <c r="V38" s="3">
-        <v>0</v>
-      </c>
-      <c r="W38" s="3">
-        <v>0</v>
-      </c>
-      <c r="X38" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>142</v>
       </c>
@@ -10201,71 +7815,8 @@
       <c r="E39" s="4">
         <v>0</v>
       </c>
-      <c r="F39" s="3">
-        <v>0</v>
-      </c>
-      <c r="G39" s="3">
-        <v>0</v>
-      </c>
-      <c r="H39" s="3">
-        <v>0</v>
-      </c>
-      <c r="I39" s="3">
-        <v>0</v>
-      </c>
-      <c r="J39" s="3">
-        <v>0</v>
-      </c>
-      <c r="K39" s="3">
-        <v>0</v>
-      </c>
-      <c r="L39" s="3">
-        <v>0</v>
-      </c>
-      <c r="M39" s="3">
-        <v>0</v>
-      </c>
-      <c r="N39" s="3">
-        <v>0</v>
-      </c>
-      <c r="O39" s="3">
-        <v>0</v>
-      </c>
-      <c r="P39" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="3">
-        <v>0</v>
-      </c>
-      <c r="R39" s="3">
-        <v>0</v>
-      </c>
-      <c r="S39" s="3">
-        <v>0</v>
-      </c>
-      <c r="T39" s="3">
-        <v>0</v>
-      </c>
-      <c r="U39" s="3">
-        <v>0</v>
-      </c>
-      <c r="V39" s="3">
-        <v>0</v>
-      </c>
-      <c r="W39" s="3">
-        <v>0</v>
-      </c>
-      <c r="X39" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>143</v>
       </c>
@@ -10281,71 +7832,8 @@
       <c r="E40" s="4">
         <v>0</v>
       </c>
-      <c r="F40" s="3">
-        <v>0</v>
-      </c>
-      <c r="G40" s="3">
-        <v>0</v>
-      </c>
-      <c r="H40" s="3">
-        <v>0</v>
-      </c>
-      <c r="I40" s="3">
-        <v>0</v>
-      </c>
-      <c r="J40" s="3">
-        <v>0</v>
-      </c>
-      <c r="K40" s="3">
-        <v>0</v>
-      </c>
-      <c r="L40" s="3">
-        <v>0</v>
-      </c>
-      <c r="M40" s="3">
-        <v>0</v>
-      </c>
-      <c r="N40" s="3">
-        <v>0</v>
-      </c>
-      <c r="O40" s="3">
-        <v>0</v>
-      </c>
-      <c r="P40" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="3">
-        <v>0</v>
-      </c>
-      <c r="R40" s="3">
-        <v>0</v>
-      </c>
-      <c r="S40" s="3">
-        <v>0</v>
-      </c>
-      <c r="T40" s="3">
-        <v>0</v>
-      </c>
-      <c r="U40" s="3">
-        <v>0</v>
-      </c>
-      <c r="V40" s="3">
-        <v>0</v>
-      </c>
-      <c r="W40" s="3">
-        <v>0</v>
-      </c>
-      <c r="X40" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>144</v>
       </c>
@@ -10361,73 +7849,10 @@
       <c r="E41" s="4">
         <v>0</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="3">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="A1:Z41">
-    <sortCondition descending="1" ref="A17:Z17"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="A1:E41">
+    <sortCondition descending="1" ref="A17:E17"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10438,7 +7863,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E41"/>
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12237,7 +9662,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J41"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13570,8 +10995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
